--- a/docs/check.xlsx
+++ b/docs/check.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{216A5A82-00EA-4ECE-913F-ABEB28EE8D5B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C7EC6649-F5C6-457F-984A-60E488B84B9E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -788,7 +788,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
